--- a/WAMUYU PLOT.xlsx
+++ b/WAMUYU PLOT.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="11535" activeTab="2"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -144,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -728,7 +733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,7 +768,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2149,7 +2154,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,10 +2313,12 @@
         <f>D8+E8</f>
         <v>5500</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>5500</v>
+      </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2332,10 +2339,12 @@
         <f>D9+E9</f>
         <v>3000</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>3500</v>
+      </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2388,11 +2397,11 @@
       </c>
       <c r="G11" s="13">
         <f t="shared" si="1"/>
-        <v>14500</v>
+        <v>23500</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="1"/>
-        <v>15600</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2511,7 +2520,7 @@
       </c>
       <c r="G19" s="7">
         <f>G11</f>
-        <v>14500</v>
+        <v>23500</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -2635,7 +2644,7 @@
       </c>
       <c r="G27" s="24">
         <f>G19+G21+G20</f>
-        <v>13400</v>
+        <v>22400</v>
       </c>
       <c r="H27" s="24">
         <f>SUM(H21:H26)</f>
@@ -2643,7 +2652,7 @@
       </c>
       <c r="I27" s="24">
         <f>G27-H27</f>
-        <v>11405</v>
+        <v>20405</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
